--- a/biology/Zoologie/Cheiloceras/Cheiloceras.xlsx
+++ b/biology/Zoologie/Cheiloceras/Cheiloceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheiloceras est un genre éteint de goniatites de la sous-classe des ammonoïdés[Note 1] qui vivait au Dévonien supérieur, il y a environ de -382 Ma à -359 Ma. Il chassait des invertébrés et petits poissons dans les mers chaudes de France et d'Allemagne.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon GBIF (site visité le 13 janvier 2023), le genre compte les espèces suivantes:
 Cheiloceras (Cheiloceras) amblylobum (Sandberger &amp; Sandberger, 1851)
@@ -557,7 +571,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Frech, 1897 : 1. Theil, Lethaea palaeozoica, 2. Bd., 1. Lief. Lethaea geognostica oder Beschreibung und Abbildung der für die Gebirgs-Formationen bezeichnendsten Versteinerungen. Stuttgart, 1897.</t>
         </is>
